--- a/results/pvalue_SIDER_all_pathway_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_all_pathway_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.279</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.253</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.224</t>
+          <t>11.279</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.978</t>
+          <t>5.013</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>-2.172</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.559</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.851</t>
+          <t>10.203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.524</t>
+          <t>9.831</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.386</t>
+          <t>8.799</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.978</t>
+          <t>6.352</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.637</t>
+          <t>6.106</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
